--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyemin/Desktop/cog/CS6795-project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyemin/Development/CS6795-project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>walk_elinimate</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>location_to_be_fired</t>
   </si>
 </sst>
 </file>
@@ -490,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +571,11 @@
       <c r="T1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,8 +588,11 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -584,8 +602,11 @@
       <c r="O3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -595,8 +616,11 @@
       <c r="O4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -609,8 +633,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -620,8 +647,11 @@
       <c r="O6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -631,8 +661,11 @@
       <c r="O7">
         <v>-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -642,8 +675,11 @@
       <c r="K8">
         <v>-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -653,8 +689,11 @@
       <c r="K9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -664,40 +703,55 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -713,8 +767,11 @@
       <c r="S15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -730,8 +787,11 @@
       <c r="S16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -747,8 +807,11 @@
       <c r="T17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -764,8 +827,11 @@
       <c r="S18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -784,8 +850,11 @@
       <c r="T19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -801,8 +870,11 @@
       <c r="T20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -818,8 +890,11 @@
       <c r="S21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -835,8 +910,11 @@
       <c r="S22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -852,8 +930,11 @@
       <c r="S23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -869,8 +950,11 @@
       <c r="T24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -886,8 +970,11 @@
       <c r="T25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -903,8 +990,11 @@
       <c r="T26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -920,8 +1010,11 @@
       <c r="T27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -937,8 +1030,11 @@
       <c r="T28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -954,8 +1050,11 @@
       <c r="T29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -971,8 +1070,11 @@
       <c r="T30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -988,8 +1090,11 @@
       <c r="T31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1005,8 +1110,11 @@
       <c r="T32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1022,8 +1130,11 @@
       <c r="T33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1039,8 +1150,11 @@
       <c r="T34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1056,8 +1170,11 @@
       <c r="T35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1073,8 +1190,11 @@
       <c r="T36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1090,8 +1210,11 @@
       <c r="T37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1107,8 +1230,11 @@
       <c r="T38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1124,8 +1250,11 @@
       <c r="T39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1141,8 +1270,11 @@
       <c r="T40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1157,6 +1289,9 @@
       </c>
       <c r="T41">
         <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1020" windowWidth="29720" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="2060" windowWidth="29720" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>location_to_be_fired</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>walk</t>
   </si>
 </sst>
 </file>
@@ -212,8 +218,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -224,9 +236,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,15 +520,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="Q31" workbookViewId="0">
+      <selection activeCell="AE57" sqref="AE57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="29.5" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,219 +563,249 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="Y3">
         <v>-1</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AE3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="Y4">
         <v>-2</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AE4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="Y6">
         <v>-1</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AE6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="Y7">
         <v>-2</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AE7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>-2</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AE8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>-1</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AE9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AE11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AE12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AE13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="U14" t="s">
+      <c r="AE14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -764,14 +818,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -784,14 +838,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="U16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -804,14 +858,14 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -824,14 +878,14 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -844,17 +898,17 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -867,14 +921,14 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -887,14 +941,14 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="U21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -907,14 +961,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="U22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -927,14 +981,14 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="U23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -947,14 +1001,14 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -967,14 +1021,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
-      <c r="U25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,14 +1041,14 @@
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1007,14 +1061,14 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1027,14 +1081,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1047,14 +1101,14 @@
       <c r="I29">
         <v>2</v>
       </c>
-      <c r="T29" s="1">
-        <v>1</v>
-      </c>
-      <c r="U29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1067,14 +1121,14 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1087,14 +1141,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1107,14 +1161,14 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1127,14 +1181,14 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1147,14 +1201,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1167,14 +1221,14 @@
       <c r="I35">
         <v>2</v>
       </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1187,14 +1241,14 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1207,14 +1261,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1227,14 +1281,14 @@
       <c r="I38">
         <v>2</v>
       </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1247,14 +1301,14 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1267,14 +1321,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1287,11 +1341,343 @@
       <c r="I41">
         <v>2</v>
       </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41" t="s">
-        <v>41</v>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O54" s="1">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O55" s="1">
+        <v>2</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="10:31" x14ac:dyDescent="0.2">
+      <c r="O57" s="1">
+        <v>2</v>
+      </c>
+      <c r="P57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q31" workbookViewId="0">
-      <selection activeCell="AE57" sqref="AE57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,6 +1349,9 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="J42">
         <v>0</v>
       </c>
@@ -1372,6 +1375,9 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="J43">
         <v>0</v>
       </c>
@@ -1392,6 +1398,9 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="J44">
         <v>0</v>
       </c>
@@ -1412,6 +1421,9 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="J45">
         <v>0</v>
       </c>
@@ -1432,6 +1444,9 @@
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="J46">
         <v>2</v>
       </c>
@@ -1455,6 +1470,9 @@
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="J47">
         <v>2</v>
       </c>
@@ -1475,6 +1493,9 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="J48">
         <v>2</v>
       </c>
@@ -1494,7 +1515,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="J49">
         <v>2</v>
       </c>
@@ -1514,7 +1538,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="O50" s="1">
         <v>0</v>
       </c>
@@ -1537,7 +1564,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="O51" s="1">
         <v>0</v>
       </c>
@@ -1557,7 +1587,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="O52" s="1">
         <v>0</v>
       </c>
@@ -1577,7 +1610,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="O53" s="1">
         <v>0</v>
       </c>
@@ -1597,7 +1633,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="O54" s="1">
         <v>2</v>
       </c>
@@ -1620,7 +1659,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="O55" s="1">
         <v>2</v>
       </c>
@@ -1640,7 +1682,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="O56" s="1">
         <v>2</v>
       </c>
@@ -1660,7 +1705,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="10:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="O57" s="1">
         <v>2</v>
       </c>

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,7 @@
     <col min="23" max="23" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,31 +605,28 @@
         <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
       <c r="AC1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,42 +636,42 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="X3">
         <v>-1</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="Y4">
+      <c r="X4">
         <v>-2</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -684,42 +681,42 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="Y6">
+      <c r="X6">
         <v>-1</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="Y7">
+      <c r="X7">
         <v>-2</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AD7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -729,11 +726,11 @@
       <c r="U8">
         <v>-2</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AD8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -743,11 +740,11 @@
       <c r="U9">
         <v>-1</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -757,55 +754,55 @@
       <c r="U10">
         <v>1</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -818,14 +815,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -838,14 +835,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -858,14 +855,14 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -878,14 +875,14 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -898,17 +895,17 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
       <c r="AC19">
         <v>1</v>
       </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -921,14 +918,14 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -941,14 +938,14 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -961,14 +958,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -981,14 +978,14 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1001,14 +998,14 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="AD24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1021,14 +1018,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="AD25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1041,14 +1038,14 @@
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="AD26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1061,14 +1058,14 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="AD27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1081,14 +1078,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="AD28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1101,14 +1098,14 @@
       <c r="I29">
         <v>2</v>
       </c>
-      <c r="AD29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1121,14 +1118,14 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="AD30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1141,14 +1138,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="AD31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1161,14 +1158,14 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="AD32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1181,14 +1178,14 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1201,14 +1198,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1221,14 +1218,14 @@
       <c r="I35">
         <v>2</v>
       </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1241,14 +1238,14 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="AD36">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1261,14 +1258,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="AD37">
-        <v>1</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1281,14 +1278,14 @@
       <c r="I38">
         <v>2</v>
       </c>
-      <c r="AD38">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1301,14 +1298,14 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1321,14 +1318,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1341,14 +1338,14 @@
       <c r="I41">
         <v>2</v>
       </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1367,14 +1364,14 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="AC42">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="s">
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1393,11 +1390,11 @@
       <c r="N43">
         <v>2</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AD43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1416,11 +1413,11 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AD44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1439,11 +1436,11 @@
       <c r="N45">
         <v>2</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AD45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1462,14 +1459,14 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="AC46">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="s">
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1488,11 +1485,11 @@
       <c r="N47">
         <v>2</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AD47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1511,11 +1508,11 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AD48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1534,11 +1531,11 @@
       <c r="N49">
         <v>2</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AD49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1557,14 +1554,14 @@
       <c r="S50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50" t="s">
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1583,11 +1580,11 @@
       <c r="S51" s="1">
         <v>2</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AD51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1606,11 +1603,11 @@
       <c r="S52" s="1">
         <v>0</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AD52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1629,11 +1626,11 @@
       <c r="S53" s="1">
         <v>2</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AD53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1652,14 +1649,14 @@
       <c r="S54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="s">
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1678,11 +1675,11 @@
       <c r="S55" s="1">
         <v>2</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AD55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1701,11 +1698,11 @@
       <c r="S56" s="1">
         <v>0</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AD56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1724,7 +1721,7 @@
       <c r="S57" s="1">
         <v>2</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AD57" t="s">
         <v>44</v>
       </c>
     </row>

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyemin/Development/CS6795-project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamet\Dropbox (GaTech)\Summer 2018\CS 6795\Project2\CS6795-project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFE53EE2-EC2C-4F0F-8D6A-AB75FB8C8AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2060" windowWidth="29720" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="1358" yWindow="2063" windowWidth="29723" windowHeight="14918" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -163,12 +164,27 @@
   </si>
   <si>
     <t>walk</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>bus_eliminate</t>
+  </si>
+  <si>
+    <t>uber_eliminate</t>
+  </si>
+  <si>
+    <t>train_eliminate</t>
+  </si>
+  <si>
+    <t>bike_eliminate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -252,6 +268,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,22 +538,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="20" max="20" width="21.5" customWidth="1"/>
-    <col min="21" max="21" width="29.5" customWidth="1"/>
-    <col min="22" max="22" width="27.33203125" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="40" max="40" width="21.5" customWidth="1"/>
+    <col min="41" max="41" width="29.5" customWidth="1"/>
+    <col min="42" max="42" width="27.3125" customWidth="1"/>
+    <col min="43" max="43" width="19.1875" customWidth="1"/>
+    <col min="48" max="48" width="21.5" customWidth="1"/>
+    <col min="49" max="49" width="29.5" customWidth="1"/>
+    <col min="50" max="50" width="27.3125" customWidth="1"/>
+    <col min="51" max="51" width="19.1875" customWidth="1"/>
+    <col min="56" max="56" width="21.5" customWidth="1"/>
+    <col min="57" max="57" width="29.5" customWidth="1"/>
+    <col min="58" max="58" width="27.3125" customWidth="1"/>
+    <col min="59" max="59" width="19.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,216 +620,402 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BM1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="X3">
+      <c r="AR3">
         <v>-1</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AZ3">
+        <v>-1</v>
+      </c>
+      <c r="BH3">
+        <v>-1</v>
+      </c>
+      <c r="BR3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="X4">
+      <c r="AR4">
         <v>-2</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AZ4">
+        <v>-2</v>
+      </c>
+      <c r="BH4">
+        <v>-2</v>
+      </c>
+      <c r="BR4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="AR6">
         <v>-1</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AZ6">
+        <v>-1</v>
+      </c>
+      <c r="BH6">
+        <v>-1</v>
+      </c>
+      <c r="BR6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="X7">
+      <c r="AR7">
         <v>-2</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AZ7">
+        <v>-2</v>
+      </c>
+      <c r="BH7">
+        <v>-2</v>
+      </c>
+      <c r="BR7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="AO8">
         <v>-2</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AW8">
+        <v>-2</v>
+      </c>
+      <c r="BE8">
+        <v>-2</v>
+      </c>
+      <c r="BR8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="AO9">
         <v>-1</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AW9">
+        <v>-1</v>
+      </c>
+      <c r="BE9">
+        <v>-1</v>
+      </c>
+      <c r="BR9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BR10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="BR11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="BR12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="BR13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="BR14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -815,14 +1028,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="BL15">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -835,14 +1048,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="BL16">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -855,14 +1068,14 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -875,14 +1088,14 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="BL18">
+        <v>1</v>
+      </c>
+      <c r="BR18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -895,17 +1108,17 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -918,14 +1131,14 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="BM20">
+        <v>1</v>
+      </c>
+      <c r="BR20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -938,14 +1151,14 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="BL21">
+        <v>1</v>
+      </c>
+      <c r="BR21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -958,14 +1171,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BR22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -978,14 +1191,14 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -998,14 +1211,18 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="AC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="BM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1018,14 +1235,18 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="AC25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="BM25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1038,14 +1259,18 @@
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="AC26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="BM26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1058,14 +1283,18 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="AC27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="BM27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1078,14 +1307,18 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="AC28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="s">
+      <c r="BM28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1098,14 +1331,18 @@
       <c r="I29">
         <v>2</v>
       </c>
-      <c r="AC29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="s">
+      <c r="BM29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1118,14 +1355,18 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="AC30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="BM30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1138,14 +1379,18 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="AC31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="s">
+      <c r="BM31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1158,14 +1403,18 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="AC32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="BM32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1178,14 +1427,14 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="AC33">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="s">
+      <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1198,14 +1447,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="AC34">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="s">
+      <c r="BM34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1218,14 +1467,14 @@
       <c r="I35">
         <v>2</v>
       </c>
-      <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="BM35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1238,14 +1487,14 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="AC36">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="BM36">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1258,14 +1507,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="AC37">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="s">
+      <c r="BM37">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1278,14 +1527,14 @@
       <c r="I38">
         <v>2</v>
       </c>
-      <c r="AC38">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="BM38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1298,14 +1547,14 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="AC39">
-        <v>1</v>
-      </c>
-      <c r="AD39" t="s">
+      <c r="BM39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1318,14 +1567,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="AC40">
-        <v>1</v>
-      </c>
-      <c r="AD40" t="s">
+      <c r="BM40">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1338,14 +1587,14 @@
       <c r="I41">
         <v>2</v>
       </c>
-      <c r="AC41">
-        <v>1</v>
-      </c>
-      <c r="AD41" t="s">
+      <c r="BM41">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1364,14 +1613,44 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="AB42">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="s">
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>1</v>
+      </c>
+      <c r="BR42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1390,11 +1669,41 @@
       <c r="N43">
         <v>2</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>2</v>
+      </c>
+      <c r="BR43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1413,11 +1722,41 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>2</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="BR44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1436,11 +1775,41 @@
       <c r="N45">
         <v>2</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>2</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>2</v>
+      </c>
+      <c r="BR45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1459,14 +1828,44 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="AB46">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="s">
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>2</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>1</v>
+      </c>
+      <c r="BR46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1485,11 +1884,41 @@
       <c r="N47">
         <v>2</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="AD47">
+        <v>2</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>2</v>
+      </c>
+      <c r="BR47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1508,11 +1937,41 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>2</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="BR48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1531,11 +1990,41 @@
       <c r="N49">
         <v>2</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>2</v>
+      </c>
+      <c r="AE49">
+        <v>2</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>2</v>
+      </c>
+      <c r="BR49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1554,14 +2043,44 @@
       <c r="S50" s="1">
         <v>0</v>
       </c>
-      <c r="AC50">
-        <v>1</v>
-      </c>
-      <c r="AD50" t="s">
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>1</v>
+      </c>
+      <c r="BR50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1580,11 +2099,41 @@
       <c r="S51" s="1">
         <v>2</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1603,11 +2152,41 @@
       <c r="S52" s="1">
         <v>0</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1626,11 +2205,41 @@
       <c r="S53" s="1">
         <v>2</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1649,14 +2258,44 @@
       <c r="S54" s="1">
         <v>0</v>
       </c>
-      <c r="AC54">
-        <v>1</v>
-      </c>
-      <c r="AD54" t="s">
+      <c r="Y54" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>1</v>
+      </c>
+      <c r="BR54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1675,11 +2314,41 @@
       <c r="S55" s="1">
         <v>2</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="Y55" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1698,11 +2367,41 @@
       <c r="S56" s="1">
         <v>0</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="Y56" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1721,7 +2420,37 @@
       <c r="S57" s="1">
         <v>2</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="Y57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR57" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1731,16 +2460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +2588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1873,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1881,7 +2610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1889,7 +2618,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.5">
       <c r="D5">
         <v>0</v>
       </c>
@@ -1900,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.5">
       <c r="D6">
         <v>1</v>
       </c>
@@ -1908,7 +2637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.5">
       <c r="D7">
         <v>2</v>
       </c>
@@ -1916,7 +2645,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.5">
       <c r="C8">
         <v>0</v>
       </c>
@@ -1924,7 +2653,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.5">
       <c r="C9">
         <v>1</v>
       </c>
@@ -1932,7 +2661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.5">
       <c r="C10">
         <v>2</v>
       </c>
@@ -1940,27 +2669,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.5">
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.5">
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.5">
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.5">
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.5">
       <c r="G15">
         <v>0</v>
       </c>
@@ -1971,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.5">
       <c r="G16">
         <v>0</v>
       </c>
@@ -1982,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G17">
         <v>0</v>
       </c>
@@ -1993,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G18">
         <v>0</v>
       </c>
@@ -2004,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G19">
         <v>0</v>
       </c>
@@ -2015,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G20">
         <v>0</v>
       </c>
@@ -2026,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G21">
         <v>0</v>
       </c>
@@ -2037,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G22">
         <v>0</v>
       </c>
@@ -2048,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G23">
         <v>0</v>
       </c>
@@ -2059,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G24">
         <v>1</v>
       </c>
@@ -2070,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G25">
         <v>1</v>
       </c>
@@ -2081,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G26">
         <v>1</v>
       </c>
@@ -2092,7 +2821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G27">
         <v>1</v>
       </c>
@@ -2103,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G28">
         <v>1</v>
       </c>
@@ -2114,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G29">
         <v>1</v>
       </c>
@@ -2125,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G30">
         <v>1</v>
       </c>
@@ -2136,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G31">
         <v>1</v>
       </c>
@@ -2147,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G32">
         <v>1</v>
       </c>
@@ -2158,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G33">
         <v>2</v>
       </c>
@@ -2169,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G34">
         <v>2</v>
       </c>
@@ -2180,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G35">
         <v>2</v>
       </c>
@@ -2191,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G36">
         <v>2</v>
       </c>
@@ -2202,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G37">
         <v>2</v>
       </c>
@@ -2213,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G38">
         <v>2</v>
       </c>
@@ -2224,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G39">
         <v>2</v>
       </c>
@@ -2235,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G40">
         <v>2</v>
       </c>
@@ -2246,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G41">
         <v>2</v>
       </c>

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamet\Dropbox (GaTech)\Summer 2018\CS 6795\Project2\CS6795-project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyemin/Development/CS6795-project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFE53EE2-EC2C-4F0F-8D6A-AB75FB8C8AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1358" yWindow="2063" windowWidth="29723" windowHeight="14918" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="2060" windowWidth="29720" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -166,9 +165,6 @@
     <t>walk</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>bus_eliminate</t>
   </si>
   <si>
@@ -179,12 +175,120 @@
   </si>
   <si>
     <t>bike_eliminate</t>
+  </si>
+  <si>
+    <t>bus_price</t>
+  </si>
+  <si>
+    <t>bus_comfort_level</t>
+  </si>
+  <si>
+    <t>bus_availability</t>
+  </si>
+  <si>
+    <t>bus_accessability</t>
+  </si>
+  <si>
+    <t>bus_safety</t>
+  </si>
+  <si>
+    <t>uber_price</t>
+  </si>
+  <si>
+    <t>uber_comfort_level</t>
+  </si>
+  <si>
+    <t>uber_availability</t>
+  </si>
+  <si>
+    <t>uber_accessability</t>
+  </si>
+  <si>
+    <t>uber_safety</t>
+  </si>
+  <si>
+    <t>train_price</t>
+  </si>
+  <si>
+    <t>train_comfort_level</t>
+  </si>
+  <si>
+    <t>train_availability</t>
+  </si>
+  <si>
+    <t>train_accessability</t>
+  </si>
+  <si>
+    <t>train_safety</t>
+  </si>
+  <si>
+    <t>bike_comfort_level</t>
+  </si>
+  <si>
+    <t>bike_price</t>
+  </si>
+  <si>
+    <t>bike_availability</t>
+  </si>
+  <si>
+    <t>bike_accessability</t>
+  </si>
+  <si>
+    <t>bike_safety</t>
+  </si>
+  <si>
+    <t>rate_bus_comfort_level</t>
+  </si>
+  <si>
+    <t>rate_bus_availability</t>
+  </si>
+  <si>
+    <t>rate_bus_accessability</t>
+  </si>
+  <si>
+    <t>rate_bus_safety</t>
+  </si>
+  <si>
+    <t>rate_uber_comfort_level</t>
+  </si>
+  <si>
+    <t>rate_uber_availability</t>
+  </si>
+  <si>
+    <t>rate_uber_accessability</t>
+  </si>
+  <si>
+    <t>rate_uber_safety</t>
+  </si>
+  <si>
+    <t>rate_train_comfort_level</t>
+  </si>
+  <si>
+    <t>rate_train_availability</t>
+  </si>
+  <si>
+    <t>rate_train_accessability</t>
+  </si>
+  <si>
+    <t>rate_train_safety</t>
+  </si>
+  <si>
+    <t>rate_bike_comfort_level</t>
+  </si>
+  <si>
+    <t>rate_bike_availability</t>
+  </si>
+  <si>
+    <t>rate_bike_accessability</t>
+  </si>
+  <si>
+    <t>rate_bike_safety</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -538,30 +642,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BM12" sqref="BM12"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="40" max="40" width="21.5" customWidth="1"/>
-    <col min="41" max="41" width="29.5" customWidth="1"/>
-    <col min="42" max="42" width="27.3125" customWidth="1"/>
-    <col min="43" max="43" width="19.1875" customWidth="1"/>
+    <col min="41" max="41" width="17.6640625" customWidth="1"/>
+    <col min="42" max="42" width="19" customWidth="1"/>
+    <col min="43" max="43" width="19.1640625" customWidth="1"/>
+    <col min="44" max="44" width="18" customWidth="1"/>
     <col min="48" max="48" width="21.5" customWidth="1"/>
-    <col min="49" max="49" width="29.5" customWidth="1"/>
-    <col min="50" max="50" width="27.3125" customWidth="1"/>
-    <col min="51" max="51" width="19.1875" customWidth="1"/>
+    <col min="49" max="49" width="19" customWidth="1"/>
+    <col min="50" max="50" width="19.33203125" customWidth="1"/>
+    <col min="51" max="51" width="19.1640625" customWidth="1"/>
     <col min="56" max="56" width="21.5" customWidth="1"/>
     <col min="57" max="57" width="29.5" customWidth="1"/>
-    <col min="58" max="58" width="27.3125" customWidth="1"/>
-    <col min="59" max="59" width="19.1875" customWidth="1"/>
+    <col min="58" max="58" width="27.33203125" customWidth="1"/>
+    <col min="59" max="59" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,64 +725,64 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>28</v>
@@ -704,52 +809,52 @@
         <v>36</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="BL1" t="s">
         <v>37</v>
@@ -758,16 +863,16 @@
         <v>38</v>
       </c>
       <c r="BN1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO1" t="s">
         <v>46</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>47</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>48</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>49</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>42</v>
@@ -1554,7 +1659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1574,7 +1679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1594,7 +1699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1650,7 +1755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1703,7 +1808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1756,7 +1861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1809,7 +1914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1865,7 +1970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1918,7 +2023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1971,7 +2076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2024,7 +2129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2080,7 +2185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2133,7 +2238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2186,7 +2291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2239,7 +2344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2295,7 +2400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2348,7 +2453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2401,7 +2506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2460,16 +2565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>2</v>
       </c>
@@ -2975,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>2</v>
       </c>

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2060" windowWidth="29720" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="2060" windowWidth="19780" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1"/>
+    <sheetView tabSelected="1" topLeftCell="BC5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BH41" sqref="BE14:BH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1136,6 +1136,18 @@
       <c r="BL15">
         <v>1</v>
       </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
       <c r="BR15" t="s">
         <v>41</v>
       </c>
@@ -1156,6 +1168,15 @@
       <c r="BL16">
         <v>1</v>
       </c>
+      <c r="BM16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
       <c r="BR16" t="s">
         <v>41</v>
       </c>
@@ -1176,6 +1197,9 @@
       <c r="BM17">
         <v>1</v>
       </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
       <c r="BR17" t="s">
         <v>41</v>
       </c>
@@ -1196,6 +1220,18 @@
       <c r="BL18">
         <v>1</v>
       </c>
+      <c r="BN18">
+        <v>1</v>
+      </c>
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
+        <v>1</v>
+      </c>
       <c r="BR18" t="s">
         <v>41</v>
       </c>
@@ -1219,6 +1255,12 @@
       <c r="BM19">
         <v>1</v>
       </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
       <c r="BR19" t="s">
         <v>41</v>
       </c>
@@ -1239,6 +1281,12 @@
       <c r="BM20">
         <v>1</v>
       </c>
+      <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
       <c r="BR20" t="s">
         <v>41</v>
       </c>
@@ -1259,6 +1307,18 @@
       <c r="BL21">
         <v>1</v>
       </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
       <c r="BR21" t="s">
         <v>41</v>
       </c>
@@ -1279,6 +1339,18 @@
       <c r="BL22">
         <v>1</v>
       </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>1</v>
+      </c>
+      <c r="BP22">
+        <v>1</v>
+      </c>
+      <c r="BQ22">
+        <v>1</v>
+      </c>
       <c r="BR22" t="s">
         <v>41</v>
       </c>
@@ -1299,6 +1371,12 @@
       <c r="BL23">
         <v>1</v>
       </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+      <c r="BP23">
+        <v>1</v>
+      </c>
       <c r="BR23" t="s">
         <v>41</v>
       </c>
@@ -1316,11 +1394,16 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="BL24">
+        <v>1</v>
+      </c>
       <c r="BM24" s="1">
         <v>1</v>
       </c>
       <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
+      <c r="BO24" s="1">
+        <v>1</v>
+      </c>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
       <c r="BR24" t="s">
@@ -1346,7 +1429,9 @@
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
+      <c r="BQ25" s="1">
+        <v>1</v>
+      </c>
       <c r="BR25" t="s">
         <v>41</v>
       </c>
@@ -1367,10 +1452,16 @@
       <c r="BM26" s="1">
         <v>1</v>
       </c>
-      <c r="BN26" s="1"/>
+      <c r="BN26" s="1">
+        <v>1</v>
+      </c>
       <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="1"/>
+      <c r="BP26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ26" s="1">
+        <v>1</v>
+      </c>
       <c r="BR26" t="s">
         <v>41</v>
       </c>
@@ -1388,11 +1479,16 @@
       <c r="I27">
         <v>0</v>
       </c>
+      <c r="BL27">
+        <v>1</v>
+      </c>
       <c r="BM27" s="1">
         <v>1</v>
       </c>
       <c r="BN27" s="1"/>
-      <c r="BO27" s="1"/>
+      <c r="BO27" s="1">
+        <v>1</v>
+      </c>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
       <c r="BR27" t="s">
@@ -1416,7 +1512,9 @@
         <v>1</v>
       </c>
       <c r="BN28" s="1"/>
-      <c r="BO28" s="1"/>
+      <c r="BO28" s="1">
+        <v>1</v>
+      </c>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
       <c r="BR28" t="s">
@@ -1442,7 +1540,9 @@
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
-      <c r="BQ29" s="1"/>
+      <c r="BQ29" s="1">
+        <v>1</v>
+      </c>
       <c r="BR29" t="s">
         <v>41</v>
       </c>
@@ -1460,11 +1560,16 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="BL30">
+        <v>1</v>
+      </c>
       <c r="BM30" s="1">
         <v>1</v>
       </c>
       <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
+      <c r="BO30" s="1">
+        <v>1</v>
+      </c>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
       <c r="BR30" t="s">
@@ -1484,11 +1589,16 @@
       <c r="I31">
         <v>1</v>
       </c>
+      <c r="BL31">
+        <v>1</v>
+      </c>
       <c r="BM31" s="1">
         <v>1</v>
       </c>
       <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
+      <c r="BO31" s="1">
+        <v>1</v>
+      </c>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
       <c r="BR31" t="s">
@@ -1508,18 +1618,23 @@
       <c r="I32">
         <v>2</v>
       </c>
+      <c r="BL32">
+        <v>1</v>
+      </c>
       <c r="BM32" s="1">
         <v>1</v>
       </c>
       <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
+      <c r="BO32" s="1">
+        <v>1</v>
+      </c>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
       <c r="BR32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1533,6 +1648,12 @@
         <v>0</v>
       </c>
       <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ33">
         <v>1</v>
       </c>
       <c r="BR33" t="s">
@@ -1555,6 +1676,9 @@
       <c r="BM34">
         <v>1</v>
       </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
       <c r="BR34" t="s">
         <v>41</v>
       </c>
@@ -1575,11 +1699,20 @@
       <c r="BM35">
         <v>1</v>
       </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>1</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
       <c r="BR35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1592,14 +1725,23 @@
       <c r="I36">
         <v>0</v>
       </c>
+      <c r="BL36">
+        <v>1</v>
+      </c>
       <c r="BM36">
+        <v>1</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ36">
         <v>1</v>
       </c>
       <c r="BR36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1613,6 +1755,9 @@
         <v>1</v>
       </c>
       <c r="BM37">
+        <v>1</v>
+      </c>
+      <c r="BO37" s="1">
         <v>1</v>
       </c>
       <c r="BR37" t="s">
@@ -1635,6 +1780,15 @@
       <c r="BM38">
         <v>1</v>
       </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>1</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
       <c r="BR38" t="s">
         <v>41</v>
       </c>
@@ -1652,7 +1806,16 @@
       <c r="I39">
         <v>0</v>
       </c>
+      <c r="BL39">
+        <v>1</v>
+      </c>
       <c r="BM39">
+        <v>1</v>
+      </c>
+      <c r="BO39">
+        <v>1</v>
+      </c>
+      <c r="BQ39">
         <v>1</v>
       </c>
       <c r="BR39" t="s">
@@ -1675,6 +1838,9 @@
       <c r="BM40">
         <v>1</v>
       </c>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
       <c r="BR40" t="s">
         <v>41</v>
       </c>
@@ -1693,6 +1859,12 @@
         <v>2</v>
       </c>
       <c r="BM41">
+        <v>1</v>
+      </c>
+      <c r="BN41">
+        <v>1</v>
+      </c>
+      <c r="BQ41">
         <v>1</v>
       </c>
       <c r="BR41" t="s">

--- a/rule_test.xlsx
+++ b/rule_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyemin/Development/CS6795-project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamet\Dropbox (GaTech)\Summer 2018\CS 6795\Project2\CS6795-project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4529F8AD-C159-4398-9845-ADE0E6D1937A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2060" windowWidth="19780" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +21,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -283,12 +281,177 @@
   </si>
   <si>
     <t>rate_bike_safety</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>uber</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>human_language</t>
+  </si>
+  <si>
+    <t>If bike is safe transportation and cheap for the agent, then the agent tends to choose bike as transportation</t>
+  </si>
+  <si>
+    <t>If car is dangerous and uncomfortable transportation, then the agent tends NOT to choose car as transportation</t>
+  </si>
+  <si>
+    <t>If walk is dangerous and uncomfortable transportation, then the agent tends NOT to choose walk as transportation</t>
+  </si>
+  <si>
+    <t>If bus is dangerous and uncomfortable transportation, then the agent tends NOT to choose bus as transportation</t>
+  </si>
+  <si>
+    <t>If uber is dangerous and uncomfortable transportation, then the agent tends NOT to choose uber as transportation</t>
+  </si>
+  <si>
+    <t>If train is dangerous and uncomfortable transportation, then the agent tends NOT to choose train as transportation</t>
+  </si>
+  <si>
+    <t>If bike is dangerous and uncomfortable transportation, then the agent tends NOT to choose bike as transportation</t>
+  </si>
+  <si>
+    <t>If car is safe transportation and cheap for the agent, then the agent tends to choose car as transportation</t>
+  </si>
+  <si>
+    <t>If walk is safe transportation and cheap for the agent, then the agent tends to choose walk as transportation</t>
+  </si>
+  <si>
+    <t>If bus is safe transportation and cheap for the agent, then the agent tends to choose bus as transportation</t>
+  </si>
+  <si>
+    <t>If uber is safe transportation and cheap for the agent, then the agent tends to choose uber as transportation</t>
+  </si>
+  <si>
+    <t>If train is safe transportation and cheap for the agent, then the agent tends to choose train as transportation</t>
+  </si>
+  <si>
+    <t>if the agent is not tired, then agent is okay with every mode of transportation</t>
+  </si>
+  <si>
+    <t>if the agent is tired, then agent is less consider walk and bike as their possible option.</t>
+  </si>
+  <si>
+    <t>if the agent is sick then agent is not consider walk and bike and less consider train and bus as their option.</t>
+  </si>
+  <si>
+    <t>if weather is normal, then agent is okay with every mode of transportation</t>
+  </si>
+  <si>
+    <t>if weather is slightly bad, then agent is less consider walk, bike, train and bus as their possible option.</t>
+  </si>
+  <si>
+    <t>if weather is extreamply bad, then agent is not consider walk, bike, train and bus as their possible option.</t>
+  </si>
+  <si>
+    <t>if the agent is not enough to use money to transportation, then agent is not okay with car and uber and less consider train and bus as their option.</t>
+  </si>
+  <si>
+    <t>if the agent is okay to use money to transportation, then agent is okay with train and bus and less consider car and uber as their option.</t>
+  </si>
+  <si>
+    <t>if the agent has enough money, then agent is consider car, uber, train, bus as their option.</t>
+  </si>
+  <si>
+    <t>if the agent in the rush hour, the agent consider train, walk and bike as their option not uber, car, bus.</t>
+  </si>
+  <si>
+    <t>if the agent in the night, the agent dose not consider walk aand less consider bus and train.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have less time, and the importance level for the travel is less, then agent choose walk and bike.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have less time, and the importance level for the travel is so so,  then agent choose bike and bus.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have less time, and the importance level for the travel is high, then agent choose uber, bike, bus and car</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have enough time, and the importance level for the travel is less, then agent choose walk.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have enough time, and the importance level for the travel is okay, then agent choose bike and bus.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have enough time, and the importance level for the travel is high, then agent choose bus, car and uber.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have a lot of time, and the importance level for the travel is less, then agent choose walk.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have a lot of time, and the importance level for the travel is okay, then agent choose walk.</t>
+  </si>
+  <si>
+    <t>if travel distance is short, agent have a lot of time, and the importance level for the travel is high, then agent choose walk, bike and bus.</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have less time, and the importance level for the travel is less, then agent choose bike, bus, and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have less time, and the importance level for the travel is okay, then agent choose bike, bus, uber , and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have less time, and the importance level for the travel is high, then agent choose car and uber</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have enough time, and the importance level for the travel is less, then agent choose bike, bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have enough time, and the importance level for the travel is okay, then agent choose bike, bus, car and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have enough time, and the importance level for the travel is high, then agent choose bus, marta, car and uber</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have a lot of time, and the importance level for the travel is less, then agent choose bike, bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have a lot of time, and the importance level for the travel is okay, then agent choose bike, bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is medium, agent have a lot of time, and the importance level for the travel is high, then agent choose bike, bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent less time, and the importance level for the travel is less, then agent choose car, bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent less time, and the importance level for the travel is okay, then agent choose car, bus, uber and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent less time, and the importance level for the travel is high, then agent choose car and uber</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent has enough time, and the importance level for the travel is less, then agent choose bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent has enough time, and the importance level for the travel is okay, then agent choose bus, car and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent has enough time, and the importance level for the travel is high, then agent choose car and uber</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent has a lot of time, and the importance level for the travel is less, then agent choose bus and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent has a lot of time, and the importance level for the travel is okay, then agent choose bus, car, uber and marta</t>
+  </si>
+  <si>
+    <t>if travel distance is long, agent has a lot of time, and the importance level for the travel is high, then agent choose car, uber and marta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -349,12 +512,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -642,31 +808,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BH41" sqref="BE14:BH41"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="49" zoomScaleNormal="51" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="40" max="40" width="21.5" customWidth="1"/>
-    <col min="41" max="41" width="17.6640625" customWidth="1"/>
+    <col min="41" max="41" width="17.6875" customWidth="1"/>
     <col min="42" max="42" width="19" customWidth="1"/>
-    <col min="43" max="43" width="19.1640625" customWidth="1"/>
+    <col min="43" max="43" width="19.1875" customWidth="1"/>
     <col min="44" max="44" width="18" customWidth="1"/>
     <col min="48" max="48" width="21.5" customWidth="1"/>
     <col min="49" max="49" width="19" customWidth="1"/>
-    <col min="50" max="50" width="19.33203125" customWidth="1"/>
-    <col min="51" max="51" width="19.1640625" customWidth="1"/>
+    <col min="50" max="50" width="19.3125" customWidth="1"/>
+    <col min="51" max="51" width="19.1875" customWidth="1"/>
     <col min="56" max="56" width="21.5" customWidth="1"/>
     <col min="57" max="57" width="29.5" customWidth="1"/>
-    <col min="58" max="58" width="27.33203125" customWidth="1"/>
-    <col min="59" max="59" width="19.1640625" customWidth="1"/>
+    <col min="58" max="58" width="27.3125" customWidth="1"/>
+    <col min="59" max="59" width="19.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,251 +1043,910 @@
       <c r="BR1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
-        <v>1</v>
-      </c>
-      <c r="BD2">
-        <v>1</v>
-      </c>
-      <c r="BH2">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BS1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
+      <c r="BS2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3">
         <v>-1</v>
       </c>
-      <c r="AZ3">
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3">
         <v>-1</v>
       </c>
-      <c r="BH3">
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3">
         <v>-1</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="AR4">
+      <c r="BS4" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3">
         <v>-2</v>
       </c>
-      <c r="AZ4">
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3">
         <v>-2</v>
       </c>
-      <c r="BH4">
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="4">
         <v>-2</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS7" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3">
+        <v>-2</v>
+      </c>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BD5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
+      <c r="BS8" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3">
         <v>-1</v>
       </c>
-      <c r="AZ6">
-        <v>-1</v>
-      </c>
-      <c r="BH6">
-        <v>-1</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="AR7">
-        <v>-2</v>
-      </c>
-      <c r="AZ7">
-        <v>-2</v>
-      </c>
-      <c r="BH7">
-        <v>-2</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>-2</v>
-      </c>
-      <c r="AW8">
-        <v>-2</v>
-      </c>
-      <c r="BE8">
-        <v>-2</v>
-      </c>
-      <c r="BR8" t="s">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
-        <v>-1</v>
-      </c>
-      <c r="AW9">
-        <v>-1</v>
-      </c>
-      <c r="BE9">
-        <v>-1</v>
-      </c>
-      <c r="BR9" t="s">
+      <c r="BS9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="BE10">
-        <v>1</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A11">
+      <c r="BS10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A12">
+      <c r="BS11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="BR12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A13">
+      <c r="BS12" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>1</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
       </c>
       <c r="BR13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="BS13" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="BL14">
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
         <v>1</v>
       </c>
       <c r="BR14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="BS14" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="G15">
@@ -1131,70 +1956,76 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>1</v>
-      </c>
-      <c r="BN15">
-        <v>1</v>
-      </c>
-      <c r="BO15">
+        <v>2</v>
+      </c>
+      <c r="BM15">
         <v>1</v>
       </c>
       <c r="BP15">
-        <v>1</v>
-      </c>
-      <c r="BQ15">
         <v>1</v>
       </c>
       <c r="BR15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A16">
+      <c r="BS15" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16">
         <v>1</v>
       </c>
-      <c r="BM16">
+      <c r="BN16">
         <v>1</v>
       </c>
       <c r="BO16">
         <v>1</v>
       </c>
       <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
         <v>1</v>
       </c>
       <c r="BR16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A17">
+      <c r="BS16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
       </c>
       <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
         <v>1</v>
       </c>
       <c r="BP17">
@@ -1203,9 +2034,12 @@
       <c r="BR17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A18">
+      <c r="BS17" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="G18">
@@ -1215,15 +2049,9 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>1</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
+        <v>2</v>
+      </c>
+      <c r="BM18">
         <v>1</v>
       </c>
       <c r="BP18">
@@ -1235,50 +2063,65 @@
       <c r="BR18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A19">
+      <c r="BS18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19">
         <v>1</v>
       </c>
-      <c r="BM19">
+      <c r="BN19">
         <v>1</v>
       </c>
       <c r="BO19">
         <v>1</v>
       </c>
       <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
         <v>1</v>
       </c>
       <c r="BR19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A20">
+      <c r="BS19" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="BM20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>1</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
         <v>1</v>
       </c>
       <c r="BP20">
@@ -1290,9 +2133,12 @@
       <c r="BR20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A21">
+      <c r="BS20" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="G21">
@@ -1302,87 +2148,87 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21">
         <v>1</v>
       </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
       <c r="BO21">
         <v>1</v>
       </c>
       <c r="BP21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
         <v>1</v>
       </c>
       <c r="BR21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A22">
+      <c r="BS21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL22">
         <v>1</v>
       </c>
-      <c r="BN22">
-        <v>1</v>
-      </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
-      <c r="BP22">
-        <v>1</v>
-      </c>
-      <c r="BQ22">
-        <v>1</v>
-      </c>
+      <c r="BM22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
       <c r="BR22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A23">
+      <c r="BS22" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="BL23">
-        <v>1</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
-      </c>
-      <c r="BP23">
+        <v>1</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1">
         <v>1</v>
       </c>
       <c r="BR23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A24">
+      <c r="BS23" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="G24">
@@ -1392,82 +2238,91 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM24" s="1">
         <v>1</v>
       </c>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
+      <c r="BN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ24" s="1">
+        <v>1</v>
+      </c>
       <c r="BR24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A25">
+      <c r="BS24" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
         <v>1</v>
       </c>
       <c r="BM25" s="1">
         <v>1</v>
       </c>
       <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
+      <c r="BO25" s="1">
+        <v>1</v>
+      </c>
       <c r="BP25" s="1"/>
-      <c r="BQ25" s="1">
-        <v>1</v>
-      </c>
+      <c r="BQ25" s="1"/>
       <c r="BR25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A26">
+      <c r="BS25" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM26" s="1">
         <v>1</v>
       </c>
-      <c r="BN26" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO26" s="1"/>
-      <c r="BP26" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ26" s="1">
-        <v>1</v>
-      </c>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
       <c r="BR26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A27">
+      <c r="BS26" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="G27">
@@ -1477,35 +2332,38 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="BL27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM27" s="1">
         <v>1</v>
       </c>
       <c r="BN27" s="1"/>
-      <c r="BO27" s="1">
-        <v>1</v>
-      </c>
+      <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
+      <c r="BQ27" s="1">
+        <v>1</v>
+      </c>
       <c r="BR27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A28">
+      <c r="BS27" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
         <v>1</v>
       </c>
       <c r="BM28" s="1">
@@ -1520,35 +2378,44 @@
       <c r="BR28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A29">
+      <c r="BS28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BL29">
+        <v>1</v>
       </c>
       <c r="BM29" s="1">
         <v>1</v>
       </c>
       <c r="BN29" s="1"/>
-      <c r="BO29" s="1"/>
+      <c r="BO29" s="1">
+        <v>1</v>
+      </c>
       <c r="BP29" s="1"/>
-      <c r="BQ29" s="1">
-        <v>1</v>
-      </c>
+      <c r="BQ29" s="1"/>
       <c r="BR29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A30">
+      <c r="BS29" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="G30">
@@ -1558,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL30">
         <v>1</v>
@@ -1575,67 +2442,67 @@
       <c r="BR30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A31">
+      <c r="BS30" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="BL31">
-        <v>1</v>
-      </c>
-      <c r="BM31" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN31" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>1</v>
+      </c>
       <c r="BO31" s="1">
         <v>1</v>
       </c>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="1"/>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
       <c r="BR31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A32">
+      <c r="BS31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="BL32">
-        <v>1</v>
-      </c>
-      <c r="BM32" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP32" s="1"/>
-      <c r="BQ32" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
       <c r="BR32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="BS32" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="G33">
@@ -1645,12 +2512,15 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM33">
         <v>1</v>
       </c>
-      <c r="BO33" s="1">
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
         <v>1</v>
       </c>
       <c r="BQ33">
@@ -1659,21 +2529,30 @@
       <c r="BR33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A34">
+      <c r="BS33" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
         <v>1</v>
       </c>
       <c r="BM34">
+        <v>1</v>
+      </c>
+      <c r="BO34" s="1">
         <v>1</v>
       </c>
       <c r="BQ34">
@@ -1682,38 +2561,38 @@
       <c r="BR34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A35">
+      <c r="BS34" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM35">
         <v>1</v>
       </c>
-      <c r="BN35">
-        <v>1</v>
-      </c>
-      <c r="BP35">
-        <v>1</v>
-      </c>
-      <c r="BQ35">
+      <c r="BO35" s="1">
         <v>1</v>
       </c>
       <c r="BR35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="BS35" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="G36">
@@ -1723,15 +2602,15 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="BL36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM36">
         <v>1</v>
       </c>
-      <c r="BO36" s="1">
+      <c r="BN36">
+        <v>1</v>
+      </c>
+      <c r="BP36">
         <v>1</v>
       </c>
       <c r="BQ36">
@@ -1740,50 +2619,56 @@
       <c r="BR36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="BS36" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
         <v>1</v>
       </c>
       <c r="BM37">
         <v>1</v>
       </c>
-      <c r="BO37" s="1">
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BQ37">
         <v>1</v>
       </c>
       <c r="BR37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A38">
+      <c r="BS37" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM38">
-        <v>1</v>
-      </c>
-      <c r="BN38">
-        <v>1</v>
-      </c>
-      <c r="BP38">
         <v>1</v>
       </c>
       <c r="BQ38">
@@ -1792,9 +2677,12 @@
       <c r="BR38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.5">
-      <c r="A39">
+      <c r="BS38" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="G39">
@@ -1804,15 +2692,12 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="BL39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM39">
         <v>1</v>
       </c>
-      <c r="BO39">
+      <c r="BN39">
         <v>1</v>
       </c>
       <c r="BQ39">
@@ -1821,915 +2706,1490 @@
       <c r="BR39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="BS39" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="BM40">
-        <v>1</v>
-      </c>
-      <c r="BQ40">
-        <v>1</v>
-      </c>
-      <c r="BR40" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS40" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>2</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS41" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="BM41">
-        <v>1</v>
-      </c>
-      <c r="BN41">
-        <v>1</v>
-      </c>
-      <c r="BQ41">
-        <v>1</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>1</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="BL42">
-        <v>1</v>
-      </c>
-      <c r="BR42" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3">
+        <v>2</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1</v>
+      </c>
+      <c r="W42" s="3">
+        <v>1</v>
+      </c>
+      <c r="X42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS42" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS43" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>2</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>1</v>
-      </c>
-      <c r="AH43">
-        <v>2</v>
-      </c>
-      <c r="BR43" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP44" s="3"/>
+      <c r="BQ44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS44" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ45" s="3"/>
+      <c r="BR45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
+      <c r="BJ46" s="3"/>
+      <c r="BK46" s="3"/>
+      <c r="BL46" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="3"/>
+      <c r="BQ46" s="3"/>
+      <c r="BR46" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>2</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="BS46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="3"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>2</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>2</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>1</v>
-      </c>
-      <c r="AH45">
-        <v>2</v>
-      </c>
-      <c r="BR45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>2</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <v>1</v>
-      </c>
-      <c r="BR46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
-        <v>2</v>
-      </c>
-      <c r="AD47">
-        <v>2</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>1</v>
-      </c>
-      <c r="AH47">
-        <v>2</v>
-      </c>
-      <c r="BR47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="BS47" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>2</v>
-      </c>
-      <c r="AE48">
-        <v>2</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>1</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
+      <c r="BQ48" s="3"/>
+      <c r="BR48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS48" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49">
-        <v>2</v>
-      </c>
-      <c r="AD49">
-        <v>2</v>
-      </c>
-      <c r="AE49">
-        <v>2</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>1</v>
-      </c>
-      <c r="AH49">
-        <v>2</v>
-      </c>
-      <c r="BR49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP49" s="3"/>
+      <c r="BQ49" s="3"/>
+      <c r="BR49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS49" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="O50" s="1">
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>1</v>
-      </c>
-      <c r="S50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM50" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM50">
-        <v>1</v>
-      </c>
-      <c r="BR50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+      <c r="BJ50" s="3"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ50" s="3"/>
+      <c r="BR50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>1</v>
-      </c>
-      <c r="S51" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0</v>
-      </c>
-      <c r="P52" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1">
-        <v>1</v>
-      </c>
-      <c r="S52" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM52" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0</v>
-      </c>
-      <c r="P53" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1">
-        <v>1</v>
-      </c>
-      <c r="S53" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM53" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="O54" s="1">
-        <v>2</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1">
-        <v>1</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM54" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM54">
-        <v>1</v>
-      </c>
-      <c r="BR54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="O55" s="1">
-        <v>2</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>1</v>
-      </c>
-      <c r="R55" s="1">
-        <v>1</v>
-      </c>
-      <c r="S55" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI55" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM55" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="O56" s="1">
-        <v>2</v>
-      </c>
-      <c r="P56" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>1</v>
-      </c>
-      <c r="R56" s="1">
-        <v>1</v>
-      </c>
-      <c r="S56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ56" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK56" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="O57" s="1">
-        <v>2</v>
-      </c>
-      <c r="P57" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1">
-        <v>1</v>
-      </c>
-      <c r="S57" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI57" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ57" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM57" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR57" t="s">
-        <v>44</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+      <c r="BJ51" s="3"/>
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="3"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
+      <c r="BO51" s="3"/>
+      <c r="BP51" s="3"/>
+      <c r="BQ51" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS51" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
+      <c r="BJ52" s="3"/>
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="3"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
+      <c r="BO52" s="3"/>
+      <c r="BP52" s="3"/>
+      <c r="BQ52" s="3"/>
+      <c r="BR52" s="3"/>
+      <c r="BS52" s="3"/>
+    </row>
+    <row r="53" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="3"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
+      <c r="BO53" s="3"/>
+      <c r="BP53" s="3"/>
+      <c r="BQ53" s="3"/>
+      <c r="BR53" s="3"/>
+      <c r="BS53" s="3"/>
+    </row>
+    <row r="54" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="3"/>
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="3"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
+      <c r="BO54" s="3"/>
+      <c r="BP54" s="3"/>
+      <c r="BQ54" s="3"/>
+      <c r="BR54" s="3"/>
+      <c r="BS54" s="3"/>
+    </row>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="3"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+      <c r="BC55" s="3"/>
+      <c r="BD55" s="3"/>
+      <c r="BE55" s="3"/>
+      <c r="BF55" s="3"/>
+      <c r="BG55" s="3"/>
+      <c r="BH55" s="3"/>
+      <c r="BI55" s="3"/>
+      <c r="BJ55" s="3"/>
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="3"/>
+      <c r="BM55" s="3"/>
+      <c r="BN55" s="3"/>
+      <c r="BO55" s="3"/>
+      <c r="BP55" s="3"/>
+      <c r="BQ55" s="3"/>
+      <c r="BR55" s="3"/>
+      <c r="BS55" s="3"/>
+    </row>
+    <row r="56" spans="1:71" x14ac:dyDescent="0.5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="3"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="3"/>
+      <c r="AY56" s="3"/>
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+      <c r="BC56" s="3"/>
+      <c r="BD56" s="3"/>
+      <c r="BE56" s="3"/>
+      <c r="BF56" s="3"/>
+      <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+      <c r="BI56" s="3"/>
+      <c r="BJ56" s="3"/>
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="3"/>
+      <c r="BM56" s="3"/>
+      <c r="BN56" s="3"/>
+      <c r="BO56" s="3"/>
+      <c r="BP56" s="3"/>
+      <c r="BQ56" s="3"/>
+      <c r="BR56" s="3"/>
+      <c r="BS56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,16 +4197,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G40">
         <v>2</v>
       </c>
@@ -3252,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G41">
         <v>2</v>
       </c>
